--- a/src/test/java/testData/dbResultsEdited.xlsx
+++ b/src/test/java/testData/dbResultsEdited.xlsx
@@ -15,42 +15,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
   <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preferences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remember_token</t>
-  </si>
-  <si>
-    <t xml:space="preserve">created_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updated_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rules</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>is_admin</t>
+  </si>
+  <si>
+    <t>preferences</t>
+  </si>
+  <si>
+    <t>remember_token</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>rules</t>
   </si>
   <si>
     <t>91982</t>
@@ -101,13 +101,13 @@
     <t>2024-03-15 00:02:57</t>
   </si>
   <si>
-    <t xml:space="preserve">count</t>
+    <t>count</t>
   </si>
   <si>
     <t>66</t>
   </si>
   <si>
-    <t xml:space="preserve">image</t>
+    <t>image</t>
   </si>
   <si>
     <t>20</t>
@@ -119,31 +119,31 @@
     <t>2022-04-24 07:19:35</t>
   </si>
   <si>
-    <t xml:space="preserve">album_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">artist_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">track</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lyrics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mtime</t>
+    <t>album_id</t>
+  </si>
+  <si>
+    <t>artist_id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>track</t>
+  </si>
+  <si>
+    <t>disc</t>
+  </si>
+  <si>
+    <t>lyrics</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>mtime</t>
   </si>
   <si>
     <t>Dark Days</t>
@@ -246,6 +246,12 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="6.83984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.046875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="65.21875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -412,6 +418,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="6.4140625" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
@@ -435,6 +444,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="3.36328125" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
@@ -475,11 +487,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="3.36328125" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
@@ -547,7 +562,9 @@
       <c r="G2" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="H2" s="0"/>
+      <c r="H2" t="s" s="0">
+        <v>0</v>
+      </c>
       <c r="I2" t="s" s="0">
         <v>46</v>
       </c>
@@ -564,48 +581,6 @@
         <v>32</v>
       </c>
       <c r="N2" s="0"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="M3" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="N3" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/test/java/testData/dbResultsEdited.xlsx
+++ b/src/test/java/testData/dbResultsEdited.xlsx
@@ -7,9 +7,9 @@
   </bookViews>
   <sheets>
     <sheet name="getKoelUserPlaylists" r:id="rId3" sheetId="1"/>
-    <sheet name="totalSongCount" r:id="rId4" sheetId="2"/>
-    <sheet name="artistQuery" r:id="rId5" sheetId="3"/>
-    <sheet name="songByArtist" r:id="rId6" sheetId="4"/>
+    <sheet name="artistQuery" r:id="rId4" sheetId="2"/>
+    <sheet name="songByArtist" r:id="rId5" sheetId="3"/>
+    <sheet name="totalSongCount" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
@@ -101,64 +101,64 @@
     <t>2024-03-15 00:02:57</t>
   </si>
   <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Grav</t>
+  </si>
+  <si>
+    <t>2022-04-24 07:19:35</t>
+  </si>
+  <si>
+    <t>album_id</t>
+  </si>
+  <si>
+    <t>artist_id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>track</t>
+  </si>
+  <si>
+    <t>disc</t>
+  </si>
+  <si>
+    <t>lyrics</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>mtime</t>
+  </si>
+  <si>
+    <t>Dark Days</t>
+  </si>
+  <si>
+    <t>491.60</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>/var/www/qa.koel.app/media/Grav - Dark Days.mp3</t>
+  </si>
+  <si>
+    <t>1691580260</t>
+  </si>
+  <si>
     <t>count</t>
   </si>
   <si>
     <t>66</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Grav</t>
-  </si>
-  <si>
-    <t>2022-04-24 07:19:35</t>
-  </si>
-  <si>
-    <t>album_id</t>
-  </si>
-  <si>
-    <t>artist_id</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>track</t>
-  </si>
-  <si>
-    <t>disc</t>
-  </si>
-  <si>
-    <t>lyrics</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>mtime</t>
-  </si>
-  <si>
-    <t>Dark Days</t>
-  </si>
-  <si>
-    <t>491.60</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>/var/www/qa.koel.app/media/Grav - Dark Days.mp3</t>
-  </si>
-  <si>
-    <t>1691580260</t>
   </si>
 </sst>
 </file>
@@ -413,23 +413,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="6.4140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="3.36328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
         <v>29</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C2" s="0"/>
+      <c r="D2" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -439,7 +461,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -453,32 +475,86 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
+      <c r="N1" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="C2" s="0"/>
-      <c r="D2" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>33</v>
-      </c>
+      <c r="L2" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="N2" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -487,100 +563,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="6.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="N2" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/test/java/testData/dbResultsEdited.xlsx
+++ b/src/test/java/testData/dbResultsEdited.xlsx
@@ -6,24 +6,145 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="getKoelUserPlaylists" r:id="rId3" sheetId="1"/>
+    <sheet name="allArtistsQuery" r:id="rId3" sheetId="1"/>
     <sheet name="artistQuery" r:id="rId4" sheetId="2"/>
     <sheet name="songByArtist" r:id="rId5" sheetId="3"/>
-    <sheet name="totalSongCount" r:id="rId6" sheetId="4"/>
+    <sheet name="getKoelUserPlaylists" r:id="rId6" sheetId="4"/>
+    <sheet name="totalSongCount" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="68">
   <si>
     <t/>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>AKMV-18</t>
+  </si>
+  <si>
+    <t>BoxCat Games</t>
+  </si>
+  <si>
+    <t>Chad Crouch</t>
+  </si>
+  <si>
+    <t>Dan Brasco</t>
+  </si>
+  <si>
+    <t>Dee Yan-Key</t>
+  </si>
+  <si>
+    <t>Grav</t>
+  </si>
+  <si>
+    <t>Herre Jorna</t>
+  </si>
+  <si>
+    <t>Hogan Grip</t>
+  </si>
+  <si>
+    <t>Lobo Loco</t>
+  </si>
+  <si>
+    <t>Makaih Beats</t>
+  </si>
+  <si>
+    <t>Metre</t>
+  </si>
+  <si>
+    <t>Music Insiders By Fma</t>
+  </si>
+  <si>
+    <t>Origami Repetika</t>
+  </si>
+  <si>
+    <t>REW&lt;&lt;</t>
+  </si>
+  <si>
+    <t>Robert John</t>
+  </si>
+  <si>
+    <t>Ron Milazzo</t>
+  </si>
+  <si>
+    <t>The Blank Tapes</t>
+  </si>
+  <si>
+    <t>Till Paradiso</t>
+  </si>
+  <si>
+    <t>Unknown Artist</t>
+  </si>
+  <si>
+    <t>Various Artists</t>
+  </si>
+  <si>
+    <t>Xylo-Ziko</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
+    <t>image</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2022-04-24 07:19:35</t>
+  </si>
+  <si>
+    <t>album_id</t>
+  </si>
+  <si>
+    <t>artist_id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>track</t>
+  </si>
+  <si>
+    <t>disc</t>
+  </si>
+  <si>
+    <t>lyrics</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>mtime</t>
+  </si>
+  <si>
+    <t>Dark Days</t>
+  </si>
+  <si>
+    <t>491.60</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>/var/www/qa.koel.app/media/Grav - Dark Days.mp3</t>
+  </si>
+  <si>
+    <t>1691580260</t>
   </si>
   <si>
     <t>email</t>
@@ -41,12 +162,6 @@
     <t>remember_token</t>
   </si>
   <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
@@ -99,60 +214,6 @@
   </si>
   <si>
     <t>2024-03-15 00:02:57</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Grav</t>
-  </si>
-  <si>
-    <t>2022-04-24 07:19:35</t>
-  </si>
-  <si>
-    <t>album_id</t>
-  </si>
-  <si>
-    <t>artist_id</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>track</t>
-  </si>
-  <si>
-    <t>disc</t>
-  </si>
-  <si>
-    <t>lyrics</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>mtime</t>
-  </si>
-  <si>
-    <t>Dark Days</t>
-  </si>
-  <si>
-    <t>491.60</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>/var/www/qa.koel.app/media/Grav - Dark Days.mp3</t>
-  </si>
-  <si>
-    <t>1691580260</t>
   </si>
   <si>
     <t>count</t>
@@ -166,13 +227,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -229,182 +295,137 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="6.83984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.44140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.046875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="65.21875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.61328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K2" s="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K3" s="0"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
-      <c r="H4" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-      <c r="H5" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="J5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K5" s="0"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -420,38 +441,42 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="3.36328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.25390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.85546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="21.13671875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="21.13671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0"/>
       <c r="D2" t="s" s="0">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -468,91 +493,104 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="3.36328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.71484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.91015625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="6.2265625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="48.5546875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="12.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="21.13671875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="21.13671875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="6.25390625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="6.85546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>0</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="N2" s="0"/>
     </row>
@@ -562,6 +600,185 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="6.83984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.046875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="65.21875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.5390625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="12.2734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="17.046875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="21.13671875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="21.13671875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="7.9921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.77734375" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="K2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="K3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="K5" s="0"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -573,13 +790,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>46</v>
+      <c r="A1" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
